--- a/lowe/edd/data/MAD$HWS.xlsx
+++ b/lowe/edd/data/MAD$HWS.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1358,14 +1358,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JH51"/>
+  <dimension ref="A1:JI51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.140625" customWidth="1"/>
     <col min="4" max="4" width="29" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
@@ -1375,12 +1375,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44456.697581018518</v>
+        <v>44491.610081018516</v>
       </c>
     </row>
-    <row r="2" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:268" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1408,12 +1408,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2228,11 +2228,14 @@
       <c r="JG8" s="8">
         <v>44378</v>
       </c>
-      <c r="JH8" s="9">
+      <c r="JH8" s="8">
         <v>44409</v>
       </c>
+      <c r="JI8" s="9">
+        <v>44440</v>
+      </c>
     </row>
-    <row r="9" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3033,10 +3036,13 @@
         <v>61600</v>
       </c>
       <c r="JH9" s="11">
-        <v>62800</v>
+        <v>62600</v>
+      </c>
+      <c r="JI9" s="11">
+        <v>62600</v>
       </c>
     </row>
-    <row r="10" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3837,10 +3843,13 @@
         <v>56000</v>
       </c>
       <c r="JH10" s="11">
-        <v>57600</v>
+        <v>57400</v>
+      </c>
+      <c r="JI10" s="11">
+        <v>58100</v>
       </c>
     </row>
-    <row r="11" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4643,8 +4652,11 @@
       <c r="JH11" s="11">
         <v>5200</v>
       </c>
+      <c r="JI11" s="11">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="12" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5445,10 +5457,13 @@
         <v>9.0999999999999998E-2</v>
       </c>
       <c r="JH12" s="12">
-        <v>8.3000000000000004E-2</v>
+        <v>8.4000000000000005E-2</v>
+      </c>
+      <c r="JI12" s="12">
+        <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6249,10 +6264,13 @@
         <v>50600</v>
       </c>
       <c r="JH13" s="11">
-        <v>53300</v>
+        <v>53000</v>
+      </c>
+      <c r="JI13" s="11">
+        <v>53200</v>
       </c>
     </row>
-    <row r="14" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7055,8 +7073,11 @@
       <c r="JH14" s="11">
         <v>13700</v>
       </c>
+      <c r="JI14" s="11">
+        <v>13500</v>
+      </c>
     </row>
-    <row r="15" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7857,10 +7878,13 @@
         <v>38100</v>
       </c>
       <c r="JH15" s="11">
-        <v>39600</v>
+        <v>39300</v>
+      </c>
+      <c r="JI15" s="11">
+        <v>39700</v>
       </c>
     </row>
-    <row r="16" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8661,10 +8685,13 @@
         <v>28700</v>
       </c>
       <c r="JH16" s="11">
+        <v>28800</v>
+      </c>
+      <c r="JI16" s="11">
         <v>29000</v>
       </c>
     </row>
-    <row r="17" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9467,8 +9494,11 @@
       <c r="JH17" s="11">
         <v>5200</v>
       </c>
+      <c r="JI17" s="11">
+        <v>5200</v>
+      </c>
     </row>
-    <row r="18" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10271,8 +10301,11 @@
       <c r="JH18" s="11">
         <v>2100</v>
       </c>
+      <c r="JI18" s="11">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="19" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11075,8 +11108,11 @@
       <c r="JH19" s="11">
         <v>3100</v>
       </c>
+      <c r="JI19" s="11">
+        <v>3100</v>
+      </c>
     </row>
-    <row r="20" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -11877,10 +11913,13 @@
         <v>33000</v>
       </c>
       <c r="JH20" s="11">
-        <v>34400</v>
+        <v>34100</v>
+      </c>
+      <c r="JI20" s="11">
+        <v>34500</v>
       </c>
     </row>
-    <row r="21" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -12681,10 +12720,13 @@
         <v>23600</v>
       </c>
       <c r="JH21" s="11">
+        <v>23600</v>
+      </c>
+      <c r="JI21" s="11">
         <v>23800</v>
       </c>
     </row>
-    <row r="22" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -13487,8 +13529,11 @@
       <c r="JH22" s="11">
         <v>6300</v>
       </c>
+      <c r="JI22" s="11">
+        <v>6300</v>
+      </c>
     </row>
-    <row r="23" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -14291,8 +14336,11 @@
       <c r="JH23" s="11">
         <v>800</v>
       </c>
+      <c r="JI23" s="11">
+        <v>800</v>
+      </c>
     </row>
-    <row r="24" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -15095,8 +15143,11 @@
       <c r="JH24" s="11">
         <v>4300</v>
       </c>
+      <c r="JI24" s="11">
+        <v>4300</v>
+      </c>
     </row>
-    <row r="25" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -15899,8 +15950,11 @@
       <c r="JH25" s="11">
         <v>1200</v>
       </c>
+      <c r="JI25" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="26" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -16703,8 +16757,11 @@
       <c r="JH26" s="11">
         <v>300</v>
       </c>
+      <c r="JI26" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="27" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -17507,8 +17564,11 @@
       <c r="JH27" s="11">
         <v>700</v>
       </c>
+      <c r="JI27" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="28" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -18309,10 +18369,13 @@
         <v>2900</v>
       </c>
       <c r="JH28" s="11">
+        <v>2700</v>
+      </c>
+      <c r="JI28" s="11">
         <v>2800</v>
       </c>
     </row>
-    <row r="29" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -19115,8 +19178,11 @@
       <c r="JH29" s="11">
         <v>8800</v>
       </c>
+      <c r="JI29" s="11">
+        <v>8800</v>
+      </c>
     </row>
-    <row r="30" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>30</v>
       </c>
@@ -19919,8 +19985,11 @@
       <c r="JH30" s="11">
         <v>8700</v>
       </c>
+      <c r="JI30" s="11">
+        <v>8800</v>
+      </c>
     </row>
-    <row r="31" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>33</v>
       </c>
@@ -20721,10 +20790,13 @@
         <v>3800</v>
       </c>
       <c r="JH31" s="11">
-        <v>3900</v>
+        <v>3800</v>
+      </c>
+      <c r="JI31" s="11">
+        <v>4000</v>
       </c>
     </row>
-    <row r="32" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>36</v>
       </c>
@@ -21527,8 +21599,11 @@
       <c r="JH32" s="11">
         <v>1000</v>
       </c>
+      <c r="JI32" s="11">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="33" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>37</v>
       </c>
@@ -22329,10 +22404,13 @@
         <v>9400</v>
       </c>
       <c r="JH33" s="11">
-        <v>10600</v>
+        <v>10500</v>
+      </c>
+      <c r="JI33" s="11">
+        <v>10700</v>
       </c>
     </row>
-    <row r="34" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>38</v>
       </c>
@@ -23135,8 +23213,11 @@
       <c r="JH34" s="11">
         <v>300</v>
       </c>
+      <c r="JI34" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="35" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>39</v>
       </c>
@@ -23937,10 +24018,13 @@
         <v>9100</v>
       </c>
       <c r="JH35" s="11">
-        <v>10300</v>
+        <v>10200</v>
+      </c>
+      <c r="JI35" s="11">
+        <v>10400</v>
       </c>
     </row>
-    <row r="36" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>40</v>
       </c>
@@ -24743,8 +24827,11 @@
       <c r="JH36" s="11">
         <v>2600</v>
       </c>
+      <c r="JI36" s="11">
+        <v>2600</v>
+      </c>
     </row>
-    <row r="37" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>41</v>
       </c>
@@ -25545,10 +25632,13 @@
         <v>6500</v>
       </c>
       <c r="JH37" s="11">
-        <v>7700</v>
+        <v>7600</v>
+      </c>
+      <c r="JI37" s="11">
+        <v>7800</v>
       </c>
     </row>
-    <row r="38" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>42</v>
       </c>
@@ -26349,10 +26439,13 @@
         <v>3100</v>
       </c>
       <c r="JH38" s="11">
-        <v>4400</v>
+        <v>4200</v>
+      </c>
+      <c r="JI38" s="11">
+        <v>4300</v>
       </c>
     </row>
-    <row r="39" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>43</v>
       </c>
@@ -27153,10 +27246,13 @@
         <v>3400</v>
       </c>
       <c r="JH39" s="11">
-        <v>3300</v>
+        <v>3400</v>
+      </c>
+      <c r="JI39" s="11">
+        <v>3500</v>
       </c>
     </row>
-    <row r="40" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>44</v>
       </c>
@@ -27959,8 +28055,11 @@
       <c r="JH40" s="11">
         <v>1600</v>
       </c>
+      <c r="JI40" s="11">
+        <v>1700</v>
+      </c>
     </row>
-    <row r="41" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>45</v>
       </c>
@@ -28761,10 +28860,13 @@
         <v>400</v>
       </c>
       <c r="JH41" s="11">
-        <v>300</v>
+        <v>400</v>
+      </c>
+      <c r="JI41" s="11">
+        <v>400</v>
       </c>
     </row>
-    <row r="42" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>46</v>
       </c>
@@ -29567,8 +29669,11 @@
       <c r="JH42" s="11">
         <v>1400</v>
       </c>
+      <c r="JI42" s="11">
+        <v>1400</v>
+      </c>
     </row>
-    <row r="44" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>105</v>
       </c>
@@ -29581,7 +29686,7 @@
       <c r="H44" s="17"/>
       <c r="I44" s="16"/>
     </row>
-    <row r="45" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>16</v>
       </c>
@@ -29594,7 +29699,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>106</v>
       </c>
@@ -29607,7 +29712,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>107</v>
       </c>
@@ -29620,7 +29725,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:268" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>108</v>
       </c>

--- a/lowe/edd/data/MAD$HWS.xlsx
+++ b/lowe/edd/data/MAD$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13950" windowHeight="6360"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1358,7 +1358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JI51"/>
+  <dimension ref="A1:JJ51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1375,12 +1375,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44491.610081018516</v>
+        <v>44519.49428240741</v>
       </c>
     </row>
-    <row r="2" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:269" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1408,12 +1408,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2231,11 +2231,14 @@
       <c r="JH8" s="8">
         <v>44409</v>
       </c>
-      <c r="JI8" s="9">
+      <c r="JI8" s="8">
         <v>44440</v>
       </c>
+      <c r="JJ8" s="9">
+        <v>44470</v>
+      </c>
     </row>
-    <row r="9" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3039,10 +3042,13 @@
         <v>62600</v>
       </c>
       <c r="JI9" s="11">
-        <v>62600</v>
+        <v>62500</v>
+      </c>
+      <c r="JJ9" s="11">
+        <v>61600</v>
       </c>
     </row>
-    <row r="10" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3846,10 +3852,13 @@
         <v>57400</v>
       </c>
       <c r="JI10" s="11">
-        <v>58100</v>
+        <v>57900</v>
+      </c>
+      <c r="JJ10" s="11">
+        <v>57100</v>
       </c>
     </row>
-    <row r="11" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4655,8 +4664,11 @@
       <c r="JI11" s="11">
         <v>4500</v>
       </c>
+      <c r="JJ11" s="11">
+        <v>4500</v>
+      </c>
     </row>
-    <row r="12" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5460,10 +5472,13 @@
         <v>8.4000000000000005E-2</v>
       </c>
       <c r="JI12" s="12">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="JJ12" s="12">
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6267,10 +6282,13 @@
         <v>53000</v>
       </c>
       <c r="JI13" s="11">
-        <v>53200</v>
+        <v>52900</v>
+      </c>
+      <c r="JJ13" s="11">
+        <v>51900</v>
       </c>
     </row>
-    <row r="14" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7074,10 +7092,13 @@
         <v>13700</v>
       </c>
       <c r="JI14" s="11">
-        <v>13500</v>
+        <v>13400</v>
+      </c>
+      <c r="JJ14" s="11">
+        <v>12100</v>
       </c>
     </row>
-    <row r="15" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7881,10 +7902,13 @@
         <v>39300</v>
       </c>
       <c r="JI15" s="11">
-        <v>39700</v>
+        <v>39500</v>
+      </c>
+      <c r="JJ15" s="11">
+        <v>39800</v>
       </c>
     </row>
-    <row r="16" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8688,10 +8712,13 @@
         <v>28800</v>
       </c>
       <c r="JI16" s="11">
-        <v>29000</v>
+        <v>28900</v>
+      </c>
+      <c r="JJ16" s="11">
+        <v>29500</v>
       </c>
     </row>
-    <row r="17" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9495,10 +9522,13 @@
         <v>5200</v>
       </c>
       <c r="JI17" s="11">
-        <v>5200</v>
+        <v>5300</v>
+      </c>
+      <c r="JJ17" s="11">
+        <v>5300</v>
       </c>
     </row>
-    <row r="18" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10304,8 +10334,11 @@
       <c r="JI18" s="11">
         <v>2100</v>
       </c>
+      <c r="JJ18" s="11">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="19" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11109,10 +11142,13 @@
         <v>3100</v>
       </c>
       <c r="JI19" s="11">
-        <v>3100</v>
+        <v>3200</v>
+      </c>
+      <c r="JJ19" s="11">
+        <v>3200</v>
       </c>
     </row>
-    <row r="20" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -11916,10 +11952,13 @@
         <v>34100</v>
       </c>
       <c r="JI20" s="11">
+        <v>34200</v>
+      </c>
+      <c r="JJ20" s="11">
         <v>34500</v>
       </c>
     </row>
-    <row r="21" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -12723,10 +12762,13 @@
         <v>23600</v>
       </c>
       <c r="JI21" s="11">
-        <v>23800</v>
+        <v>23600</v>
+      </c>
+      <c r="JJ21" s="11">
+        <v>24200</v>
       </c>
     </row>
-    <row r="22" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -13532,8 +13574,11 @@
       <c r="JI22" s="11">
         <v>6300</v>
       </c>
+      <c r="JJ22" s="11">
+        <v>6900</v>
+      </c>
     </row>
-    <row r="23" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -14339,8 +14384,11 @@
       <c r="JI23" s="11">
         <v>800</v>
       </c>
+      <c r="JJ23" s="11">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="24" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -15146,8 +15194,11 @@
       <c r="JI24" s="11">
         <v>4300</v>
       </c>
+      <c r="JJ24" s="11">
+        <v>4700</v>
+      </c>
     </row>
-    <row r="25" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -15953,8 +16004,11 @@
       <c r="JI25" s="11">
         <v>1200</v>
       </c>
+      <c r="JJ25" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="26" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -16760,8 +16814,11 @@
       <c r="JI26" s="11">
         <v>200</v>
       </c>
+      <c r="JJ26" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="27" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -17567,8 +17624,11 @@
       <c r="JI27" s="11">
         <v>700</v>
       </c>
+      <c r="JJ27" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="28" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -18374,8 +18434,11 @@
       <c r="JI28" s="11">
         <v>2800</v>
       </c>
+      <c r="JJ28" s="11">
+        <v>2800</v>
+      </c>
     </row>
-    <row r="29" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -19181,8 +19244,11 @@
       <c r="JI29" s="11">
         <v>8800</v>
       </c>
+      <c r="JJ29" s="11">
+        <v>8800</v>
+      </c>
     </row>
-    <row r="30" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>30</v>
       </c>
@@ -19986,10 +20052,13 @@
         <v>8700</v>
       </c>
       <c r="JI30" s="11">
+        <v>8700</v>
+      </c>
+      <c r="JJ30" s="11">
         <v>8800</v>
       </c>
     </row>
-    <row r="31" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>33</v>
       </c>
@@ -20793,10 +20862,13 @@
         <v>3800</v>
       </c>
       <c r="JI31" s="11">
-        <v>4000</v>
+        <v>3800</v>
+      </c>
+      <c r="JJ31" s="11">
+        <v>3800</v>
       </c>
     </row>
-    <row r="32" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>36</v>
       </c>
@@ -21602,8 +21674,11 @@
       <c r="JI32" s="11">
         <v>1000</v>
       </c>
+      <c r="JJ32" s="11">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="33" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>37</v>
       </c>
@@ -22407,10 +22482,13 @@
         <v>10500</v>
       </c>
       <c r="JI33" s="11">
-        <v>10700</v>
+        <v>10600</v>
+      </c>
+      <c r="JJ33" s="11">
+        <v>10300</v>
       </c>
     </row>
-    <row r="34" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>38</v>
       </c>
@@ -23216,8 +23294,11 @@
       <c r="JI34" s="11">
         <v>300</v>
       </c>
+      <c r="JJ34" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="35" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>39</v>
       </c>
@@ -24021,10 +24102,13 @@
         <v>10200</v>
       </c>
       <c r="JI35" s="11">
-        <v>10400</v>
+        <v>10300</v>
+      </c>
+      <c r="JJ35" s="11">
+        <v>10000</v>
       </c>
     </row>
-    <row r="36" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>40</v>
       </c>
@@ -24830,8 +24914,11 @@
       <c r="JI36" s="11">
         <v>2600</v>
       </c>
+      <c r="JJ36" s="11">
+        <v>2600</v>
+      </c>
     </row>
-    <row r="37" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>41</v>
       </c>
@@ -25635,10 +25722,13 @@
         <v>7600</v>
       </c>
       <c r="JI37" s="11">
-        <v>7800</v>
+        <v>7700</v>
+      </c>
+      <c r="JJ37" s="11">
+        <v>7400</v>
       </c>
     </row>
-    <row r="38" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>42</v>
       </c>
@@ -26442,10 +26532,13 @@
         <v>4200</v>
       </c>
       <c r="JI38" s="11">
-        <v>4300</v>
+        <v>4400</v>
+      </c>
+      <c r="JJ38" s="11">
+        <v>4200</v>
       </c>
     </row>
-    <row r="39" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>43</v>
       </c>
@@ -27249,10 +27342,13 @@
         <v>3400</v>
       </c>
       <c r="JI39" s="11">
-        <v>3500</v>
+        <v>3300</v>
+      </c>
+      <c r="JJ39" s="11">
+        <v>3200</v>
       </c>
     </row>
-    <row r="40" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>44</v>
       </c>
@@ -28056,10 +28152,13 @@
         <v>1600</v>
       </c>
       <c r="JI40" s="11">
-        <v>1700</v>
+        <v>1600</v>
+      </c>
+      <c r="JJ40" s="11">
+        <v>1600</v>
       </c>
     </row>
-    <row r="41" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>45</v>
       </c>
@@ -28865,8 +28964,11 @@
       <c r="JI41" s="11">
         <v>400</v>
       </c>
+      <c r="JJ41" s="11">
+        <v>400</v>
+      </c>
     </row>
-    <row r="42" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>46</v>
       </c>
@@ -29670,10 +29772,13 @@
         <v>1400</v>
       </c>
       <c r="JI42" s="11">
-        <v>1400</v>
+        <v>1300</v>
+      </c>
+      <c r="JJ42" s="11">
+        <v>1200</v>
       </c>
     </row>
-    <row r="44" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>105</v>
       </c>
@@ -29686,7 +29791,7 @@
       <c r="H44" s="17"/>
       <c r="I44" s="16"/>
     </row>
-    <row r="45" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>16</v>
       </c>
@@ -29699,7 +29804,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>106</v>
       </c>
@@ -29712,7 +29817,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>107</v>
       </c>
@@ -29725,7 +29830,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:269" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>108</v>
       </c>

--- a/lowe/edd/data/MAD$HWS.xlsx
+++ b/lowe/edd/data/MAD$HWS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\Jenny\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\LMIDATA AUTOCES\Published Data NAICS\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1358,7 +1358,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:JJ51"/>
+  <dimension ref="A1:JL51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1375,12 +1375,12 @@
     <col min="9" max="114" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>44519.49428240741</v>
+        <v>44582.472731481481</v>
       </c>
     </row>
-    <row r="2" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:270" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:272" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1408,12 +1408,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:272" x14ac:dyDescent="0.2">
       <c r="G5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
@@ -1426,7 +1426,7 @@
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>8</v>
       </c>
@@ -2234,11 +2234,17 @@
       <c r="JI8" s="8">
         <v>44440</v>
       </c>
-      <c r="JJ8" s="9">
+      <c r="JJ8" s="8">
         <v>44470</v>
       </c>
+      <c r="JK8" s="8">
+        <v>44501</v>
+      </c>
+      <c r="JL8" s="9">
+        <v>44531</v>
+      </c>
     </row>
-    <row r="9" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>1</v>
       </c>
@@ -3045,10 +3051,16 @@
         <v>62500</v>
       </c>
       <c r="JJ9" s="11">
-        <v>61600</v>
+        <v>61500</v>
+      </c>
+      <c r="JK9" s="11">
+        <v>61100</v>
+      </c>
+      <c r="JL9" s="11">
+        <v>62200</v>
       </c>
     </row>
-    <row r="10" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>2</v>
       </c>
@@ -3855,10 +3867,16 @@
         <v>57900</v>
       </c>
       <c r="JJ10" s="11">
-        <v>57100</v>
+        <v>57000</v>
+      </c>
+      <c r="JK10" s="11">
+        <v>57000</v>
+      </c>
+      <c r="JL10" s="11">
+        <v>58100</v>
       </c>
     </row>
-    <row r="11" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>3</v>
       </c>
@@ -4667,8 +4685,14 @@
       <c r="JJ11" s="11">
         <v>4500</v>
       </c>
+      <c r="JK11" s="11">
+        <v>4100</v>
+      </c>
+      <c r="JL11" s="11">
+        <v>4200</v>
+      </c>
     </row>
-    <row r="12" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>4</v>
       </c>
@@ -5477,8 +5501,14 @@
       <c r="JJ12" s="12">
         <v>7.2999999999999995E-2</v>
       </c>
+      <c r="JK12" s="12">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="JL12" s="12">
+        <v>6.7000000000000004E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>8</v>
       </c>
@@ -6285,10 +6315,16 @@
         <v>52900</v>
       </c>
       <c r="JJ13" s="11">
-        <v>51900</v>
+        <v>51800</v>
+      </c>
+      <c r="JK13" s="11">
+        <v>51200</v>
+      </c>
+      <c r="JL13" s="11">
+        <v>52200</v>
       </c>
     </row>
-    <row r="14" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>9</v>
       </c>
@@ -7097,8 +7133,14 @@
       <c r="JJ14" s="11">
         <v>12100</v>
       </c>
+      <c r="JK14" s="11">
+        <v>11500</v>
+      </c>
+      <c r="JL14" s="11">
+        <v>12800</v>
+      </c>
     </row>
-    <row r="15" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>10</v>
       </c>
@@ -7905,10 +7947,16 @@
         <v>39500</v>
       </c>
       <c r="JJ15" s="11">
-        <v>39800</v>
+        <v>39700</v>
+      </c>
+      <c r="JK15" s="11">
+        <v>39700</v>
+      </c>
+      <c r="JL15" s="11">
+        <v>39400</v>
       </c>
     </row>
-    <row r="16" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>11</v>
       </c>
@@ -8715,10 +8763,16 @@
         <v>28900</v>
       </c>
       <c r="JJ16" s="11">
-        <v>29500</v>
+        <v>29100</v>
+      </c>
+      <c r="JK16" s="11">
+        <v>28800</v>
+      </c>
+      <c r="JL16" s="11">
+        <v>28500</v>
       </c>
     </row>
-    <row r="17" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>12</v>
       </c>
@@ -9527,8 +9581,14 @@
       <c r="JJ17" s="11">
         <v>5300</v>
       </c>
+      <c r="JK17" s="11">
+        <v>5300</v>
+      </c>
+      <c r="JL17" s="11">
+        <v>5100</v>
+      </c>
     </row>
-    <row r="18" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>13</v>
       </c>
@@ -10337,8 +10397,14 @@
       <c r="JJ18" s="11">
         <v>2100</v>
       </c>
+      <c r="JK18" s="11">
+        <v>2100</v>
+      </c>
+      <c r="JL18" s="11">
+        <v>2100</v>
+      </c>
     </row>
-    <row r="19" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>14</v>
       </c>
@@ -11147,8 +11213,14 @@
       <c r="JJ19" s="11">
         <v>3200</v>
       </c>
+      <c r="JK19" s="11">
+        <v>3200</v>
+      </c>
+      <c r="JL19" s="11">
+        <v>3000</v>
+      </c>
     </row>
-    <row r="20" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>17</v>
       </c>
@@ -11955,10 +12027,16 @@
         <v>34200</v>
       </c>
       <c r="JJ20" s="11">
-        <v>34500</v>
+        <v>34400</v>
+      </c>
+      <c r="JK20" s="11">
+        <v>34400</v>
+      </c>
+      <c r="JL20" s="11">
+        <v>34300</v>
       </c>
     </row>
-    <row r="21" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>18</v>
       </c>
@@ -12765,10 +12843,16 @@
         <v>23600</v>
       </c>
       <c r="JJ21" s="11">
-        <v>24200</v>
+        <v>23800</v>
+      </c>
+      <c r="JK21" s="11">
+        <v>23500</v>
+      </c>
+      <c r="JL21" s="11">
+        <v>23400</v>
       </c>
     </row>
-    <row r="22" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>19</v>
       </c>
@@ -13575,10 +13659,16 @@
         <v>6300</v>
       </c>
       <c r="JJ22" s="11">
-        <v>6900</v>
+        <v>6600</v>
+      </c>
+      <c r="JK22" s="11">
+        <v>6500</v>
+      </c>
+      <c r="JL22" s="11">
+        <v>6600</v>
       </c>
     </row>
-    <row r="23" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>20</v>
       </c>
@@ -14387,8 +14477,14 @@
       <c r="JJ23" s="11">
         <v>1000</v>
       </c>
+      <c r="JK23" s="11">
+        <v>900</v>
+      </c>
+      <c r="JL23" s="11">
+        <v>900</v>
+      </c>
     </row>
-    <row r="24" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>21</v>
       </c>
@@ -15195,10 +15291,16 @@
         <v>4300</v>
       </c>
       <c r="JJ24" s="11">
-        <v>4700</v>
+        <v>4400</v>
+      </c>
+      <c r="JK24" s="11">
+        <v>4400</v>
+      </c>
+      <c r="JL24" s="11">
+        <v>4500</v>
       </c>
     </row>
-    <row r="25" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>24</v>
       </c>
@@ -16007,8 +16109,14 @@
       <c r="JJ25" s="11">
         <v>1200</v>
       </c>
+      <c r="JK25" s="11">
+        <v>1200</v>
+      </c>
+      <c r="JL25" s="11">
+        <v>1200</v>
+      </c>
     </row>
-    <row r="26" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>25</v>
       </c>
@@ -16817,8 +16925,14 @@
       <c r="JJ26" s="11">
         <v>200</v>
       </c>
+      <c r="JK26" s="11">
+        <v>200</v>
+      </c>
+      <c r="JL26" s="11">
+        <v>200</v>
+      </c>
     </row>
-    <row r="27" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>26</v>
       </c>
@@ -17627,8 +17741,14 @@
       <c r="JJ27" s="11">
         <v>700</v>
       </c>
+      <c r="JK27" s="11">
+        <v>700</v>
+      </c>
+      <c r="JL27" s="11">
+        <v>700</v>
+      </c>
     </row>
-    <row r="28" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>27</v>
       </c>
@@ -18435,10 +18555,16 @@
         <v>2800</v>
       </c>
       <c r="JJ28" s="11">
-        <v>2800</v>
+        <v>2700</v>
+      </c>
+      <c r="JK28" s="11">
+        <v>2600</v>
+      </c>
+      <c r="JL28" s="11">
+        <v>2500</v>
       </c>
     </row>
-    <row r="29" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>28</v>
       </c>
@@ -19247,8 +19373,14 @@
       <c r="JJ29" s="11">
         <v>8800</v>
       </c>
+      <c r="JK29" s="11">
+        <v>8900</v>
+      </c>
+      <c r="JL29" s="11">
+        <v>8800</v>
+      </c>
     </row>
-    <row r="30" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>30</v>
       </c>
@@ -20057,8 +20189,14 @@
       <c r="JJ30" s="11">
         <v>8800</v>
       </c>
+      <c r="JK30" s="11">
+        <v>8800</v>
+      </c>
+      <c r="JL30" s="11">
+        <v>8700</v>
+      </c>
     </row>
-    <row r="31" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>33</v>
       </c>
@@ -20867,8 +21005,14 @@
       <c r="JJ31" s="11">
         <v>3800</v>
       </c>
+      <c r="JK31" s="11">
+        <v>3600</v>
+      </c>
+      <c r="JL31" s="11">
+        <v>3600</v>
+      </c>
     </row>
-    <row r="32" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>36</v>
       </c>
@@ -21677,8 +21821,14 @@
       <c r="JJ32" s="11">
         <v>1000</v>
       </c>
+      <c r="JK32" s="11">
+        <v>1000</v>
+      </c>
+      <c r="JL32" s="11">
+        <v>1000</v>
+      </c>
     </row>
-    <row r="33" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>37</v>
       </c>
@@ -22485,10 +22635,16 @@
         <v>10600</v>
       </c>
       <c r="JJ33" s="11">
-        <v>10300</v>
+        <v>10600</v>
+      </c>
+      <c r="JK33" s="11">
+        <v>10900</v>
+      </c>
+      <c r="JL33" s="11">
+        <v>10900</v>
       </c>
     </row>
-    <row r="34" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>38</v>
       </c>
@@ -23297,8 +23453,14 @@
       <c r="JJ34" s="11">
         <v>300</v>
       </c>
+      <c r="JK34" s="11">
+        <v>300</v>
+      </c>
+      <c r="JL34" s="11">
+        <v>300</v>
+      </c>
     </row>
-    <row r="35" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>39</v>
       </c>
@@ -24105,10 +24267,16 @@
         <v>10300</v>
       </c>
       <c r="JJ35" s="11">
-        <v>10000</v>
+        <v>10300</v>
+      </c>
+      <c r="JK35" s="11">
+        <v>10600</v>
+      </c>
+      <c r="JL35" s="11">
+        <v>10600</v>
       </c>
     </row>
-    <row r="36" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>40</v>
       </c>
@@ -24917,8 +25085,14 @@
       <c r="JJ36" s="11">
         <v>2600</v>
       </c>
+      <c r="JK36" s="11">
+        <v>2600</v>
+      </c>
+      <c r="JL36" s="11">
+        <v>2600</v>
+      </c>
     </row>
-    <row r="37" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>41</v>
       </c>
@@ -25725,10 +25899,16 @@
         <v>7700</v>
       </c>
       <c r="JJ37" s="11">
-        <v>7400</v>
+        <v>7700</v>
+      </c>
+      <c r="JK37" s="11">
+        <v>8000</v>
+      </c>
+      <c r="JL37" s="11">
+        <v>8000</v>
       </c>
     </row>
-    <row r="38" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>42</v>
       </c>
@@ -26535,10 +26715,16 @@
         <v>4400</v>
       </c>
       <c r="JJ38" s="11">
-        <v>4200</v>
+        <v>4500</v>
+      </c>
+      <c r="JK38" s="11">
+        <v>4700</v>
+      </c>
+      <c r="JL38" s="11">
+        <v>4700</v>
       </c>
     </row>
-    <row r="39" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>43</v>
       </c>
@@ -27347,8 +27533,14 @@
       <c r="JJ39" s="11">
         <v>3200</v>
       </c>
+      <c r="JK39" s="11">
+        <v>3300</v>
+      </c>
+      <c r="JL39" s="11">
+        <v>3300</v>
+      </c>
     </row>
-    <row r="40" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>44</v>
       </c>
@@ -28157,8 +28349,14 @@
       <c r="JJ40" s="11">
         <v>1600</v>
       </c>
+      <c r="JK40" s="11">
+        <v>1600</v>
+      </c>
+      <c r="JL40" s="11">
+        <v>1600</v>
+      </c>
     </row>
-    <row r="41" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>45</v>
       </c>
@@ -28967,8 +29165,14 @@
       <c r="JJ41" s="11">
         <v>400</v>
       </c>
+      <c r="JK41" s="11">
+        <v>400</v>
+      </c>
+      <c r="JL41" s="11">
+        <v>400</v>
+      </c>
     </row>
-    <row r="42" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>46</v>
       </c>
@@ -29777,8 +29981,14 @@
       <c r="JJ42" s="11">
         <v>1200</v>
       </c>
+      <c r="JK42" s="11">
+        <v>1300</v>
+      </c>
+      <c r="JL42" s="11">
+        <v>1300</v>
+      </c>
     </row>
-    <row r="44" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A44" s="15" t="s">
         <v>105</v>
       </c>
@@ -29791,7 +30001,7 @@
       <c r="H44" s="17"/>
       <c r="I44" s="16"/>
     </row>
-    <row r="45" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A45" s="13" t="s">
         <v>16</v>
       </c>
@@ -29804,7 +30014,7 @@
       <c r="H45" s="14"/>
       <c r="I45" s="18"/>
     </row>
-    <row r="46" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A46" s="13" t="s">
         <v>106</v>
       </c>
@@ -29817,7 +30027,7 @@
       <c r="H46" s="14"/>
       <c r="I46" s="18"/>
     </row>
-    <row r="47" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
         <v>107</v>
       </c>
@@ -29830,7 +30040,7 @@
       <c r="H47" s="14"/>
       <c r="I47" s="18"/>
     </row>
-    <row r="48" spans="1:270" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:272" x14ac:dyDescent="0.2">
       <c r="A48" s="13" t="s">
         <v>108</v>
       </c>
